--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientQuery.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientQuery.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,27 +85,19 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Query action happens successfully, and where there is an identifiable Patient subject associated with the read Resource(s).
-- Given a RESTful Query 
-- And there is a known Patient subject. 
-  - The query parameters may have identified a specific patient, or 
-  - The data resulting from a query do have a patient subject
-- And OAuth is used to authorize both app and user
-- When an App requests a RESTful Query to retrieve Resource(s) 
-- Then the search request is recorded  
+- Given a RESTful Query is requested
+- And the request is for a Patient subject indicated
+  - The requestor includes a Patient id or identifier as a query parameter
+  - The requestor security context is limited to a given Patient identity
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+  - Note success may result in zero or more results. The number of results and the content of the results are not recorded.
+- Then the AuditEvent recorded will conform
   - The raw search request is base64 encoded and placed in the .entity[query].query element. The base64 encoding of the raw search request enables preserving exactly what was requested, including possibly malicious patterns. This enables detection of malicious or malformed requests.
   - The cleaned search may be recorded (not base64) in the .entity[query].description. The cleaned search request would have removed parameters that were not understood/supported. The cleaned search request in the .description element enables more efficient processing.
-no results returned
-- Given no Resource(s) are available for a given Patient identity
-- And OAuth is used to authorize both app and user
-- When an App requests a RESTful Query to retrieve Resources(s) for a given single Patient
-- When policy indicates success with an empty bundle should be returned
-- Then an AuditEvent following this profile is recorded for the requested given Patient
-multiple patient results are returned. Note that one AuditEvent is created for every Patient identified in the resulting search set. Note this is true when the search set bundle includes any number of resources that collectively reference multiple Patients. This includes one Resource with multiple subject values, or many Resources with single subject values that are different.
-- Given Resource(s) are known associated with multiple subjects 
-- And OAuth is used to authorize both app and user
-- When an App requests a RESTful Query to retrieve Resource(s) 
-- And when the query resulting search set contains Resources associated with more than one Patient
-- Then an AuditEvent following this profile is recorded for the Patient identified in the search set returned
+- And When multiple patient results are returned, one AuditEvent is created for every Patient identified in the resulting search set. Note this is true when the search set bundle includes any number of resources that collectively reference multiple Patients. This includes one Resource with multiple subject values, or many Resources with single subject values that are different.
 Note: the pattern defined in DICOM and IHE have that the client is identified as the Source Role ID, and the server is identified as the Destination Role ID. This may not be so obvious, as the data actually flows the opposite direction. This pattern is established and thus followed here.</t>
   </si>
   <si>
@@ -292,10 +284,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -314,7 +302,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -711,6 +699,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2251,16 +2243,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.76953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2269,28 +2261,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2514,16 +2506,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2537,7 +2529,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2548,28 +2540,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2619,13 +2611,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2654,7 +2646,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2665,25 +2657,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2734,19 +2726,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2769,7 +2761,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2780,28 +2772,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2851,19 +2843,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2886,7 +2878,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2897,7 +2889,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2909,16 +2901,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2944,43 +2936,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -3003,18 +2995,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -3026,16 +3018,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3085,25 +3077,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3120,11 +3112,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3143,16 +3135,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3202,7 +3194,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3220,7 +3212,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3237,11 +3229,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3260,16 +3252,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3319,7 +3311,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3331,13 +3323,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3354,11 +3346,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3371,25 +3363,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3438,7 +3430,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3450,13 +3442,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3473,7 +3465,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3481,32 +3473,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3516,73 +3508,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3590,7 +3582,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3598,7 +3590,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3610,20 +3602,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3648,29 +3640,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3682,19 +3674,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3705,10 +3697,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3718,39 +3710,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3765,14 +3757,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3789,7 +3781,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3801,19 +3793,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3824,10 +3816,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3837,39 +3829,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3884,14 +3876,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3908,7 +3900,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3920,19 +3912,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3943,10 +3935,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>78</v>
@@ -3956,39 +3948,39 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>78</v>
@@ -4003,14 +3995,14 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
@@ -4027,7 +4019,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4039,19 +4031,19 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4062,7 +4054,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4073,29 +4065,29 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4105,70 +4097,70 @@
         <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="S16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W16" t="s" s="2">
+      <c r="X16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4179,7 +4171,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4190,7 +4182,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4202,16 +4194,16 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4261,42 +4253,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4304,34 +4296,34 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4380,42 +4372,42 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4426,28 +4418,28 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4473,55 +4465,55 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4532,7 +4524,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4543,19 +4535,19 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>213</v>
@@ -4612,19 +4604,19 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4636,7 +4628,7 @@
         <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4667,7 +4659,7 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>218</v>
@@ -4705,7 +4697,7 @@
         <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X21" t="s" s="2">
         <v>222</v>
@@ -4741,7 +4733,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>224</v>
@@ -4843,13 +4835,13 @@
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4858,7 +4850,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>239</v>
@@ -4892,7 +4884,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4904,7 +4896,7 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>246</v>
@@ -4967,7 +4959,7 @@
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
@@ -5000,7 +4992,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -5019,16 +5011,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5090,7 +5082,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
@@ -5130,13 +5122,13 @@
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>255</v>
@@ -5145,10 +5137,10 @@
         <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -5209,13 +5201,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -5243,7 +5235,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -5288,7 +5280,7 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>261</v>
@@ -5318,13 +5310,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>263</v>
@@ -5443,7 +5435,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5477,16 +5469,16 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>280</v>
@@ -5556,13 +5548,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>285</v>
@@ -5596,7 +5588,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5608,7 +5600,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>291</v>
@@ -5673,13 +5665,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5713,7 +5705,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5725,7 +5717,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>297</v>
@@ -5790,13 +5782,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5827,19 +5819,19 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>303</v>
@@ -5906,16 +5898,16 @@
         <v>302</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5949,7 +5941,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -6024,13 +6016,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>314</v>
@@ -6076,7 +6068,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>320</v>
@@ -6149,7 +6141,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6183,7 +6175,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6195,7 +6187,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>328</v>
@@ -6230,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>331</v>
@@ -6260,13 +6252,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6300,7 +6292,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6375,13 +6367,13 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6415,7 +6407,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6427,7 +6419,7 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>246</v>
@@ -6490,7 +6482,7 @@
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
@@ -6523,7 +6515,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6542,16 +6534,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6613,7 +6605,7 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6653,13 +6645,13 @@
         <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>255</v>
@@ -6668,10 +6660,10 @@
         <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6732,13 +6724,13 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6766,7 +6758,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6778,7 +6770,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>343</v>
@@ -6845,13 +6837,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6885,7 +6877,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6897,7 +6889,7 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>351</v>
@@ -6932,7 +6924,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>354</v>
@@ -6962,13 +6954,13 @@
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -7049,7 +7041,7 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>222</v>
@@ -7085,7 +7077,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -7118,10 +7110,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7197,7 +7189,7 @@
         <v>230</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7206,7 +7198,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>239</v>
@@ -7240,7 +7232,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7252,7 +7244,7 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>246</v>
@@ -7315,7 +7307,7 @@
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
@@ -7348,7 +7340,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7367,16 +7359,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7438,7 +7430,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -7478,13 +7470,13 @@
         <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>255</v>
@@ -7493,10 +7485,10 @@
         <v>256</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7557,13 +7549,13 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -7588,10 +7580,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7636,7 +7628,7 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X46" t="s" s="2">
         <v>261</v>
@@ -7666,13 +7658,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>263</v>
@@ -7791,7 +7783,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7822,19 +7814,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>280</v>
@@ -7904,13 +7896,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>285</v>
@@ -7944,7 +7936,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7956,7 +7948,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>291</v>
@@ -8021,13 +8013,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8061,7 +8053,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8073,7 +8065,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>297</v>
@@ -8138,13 +8130,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8175,19 +8167,19 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>303</v>
@@ -8254,16 +8246,16 @@
         <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8297,7 +8289,7 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -8372,13 +8364,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>314</v>
@@ -8424,7 +8416,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>320</v>
@@ -8497,7 +8489,7 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8543,7 +8535,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>328</v>
@@ -8578,7 +8570,7 @@
         <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X54" t="s" s="2">
         <v>331</v>
@@ -8608,13 +8600,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8645,10 +8637,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8723,13 +8715,13 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8763,7 +8755,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8775,7 +8767,7 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>246</v>
@@ -8838,7 +8830,7 @@
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
@@ -8871,7 +8863,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8890,16 +8882,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8961,7 +8953,7 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -9001,13 +8993,13 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>255</v>
@@ -9016,10 +9008,10 @@
         <v>256</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -9080,13 +9072,13 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -9114,7 +9106,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9126,7 +9118,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>343</v>
@@ -9193,13 +9185,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9233,7 +9225,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9245,7 +9237,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>351</v>
@@ -9280,7 +9272,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>354</v>
@@ -9310,13 +9302,13 @@
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9397,7 +9389,7 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>222</v>
@@ -9433,7 +9425,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9466,10 +9458,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9545,7 +9537,7 @@
         <v>230</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9554,7 +9546,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>239</v>
@@ -9588,7 +9580,7 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9600,7 +9592,7 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>246</v>
@@ -9663,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
@@ -9696,7 +9688,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9715,16 +9707,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9786,7 +9778,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9826,13 +9818,13 @@
         <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>255</v>
@@ -9841,10 +9833,10 @@
         <v>256</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9905,13 +9897,13 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9936,10 +9928,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9984,7 +9976,7 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>261</v>
@@ -10014,13 +10006,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>263</v>
@@ -10139,7 +10131,7 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -10170,19 +10162,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>280</v>
@@ -10252,13 +10244,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>285</v>
@@ -10292,7 +10284,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10304,7 +10296,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>291</v>
@@ -10369,13 +10361,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10409,7 +10401,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10421,7 +10413,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>297</v>
@@ -10486,13 +10478,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10523,19 +10515,19 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>303</v>
@@ -10602,16 +10594,16 @@
         <v>302</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10645,7 +10637,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10720,13 +10712,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>314</v>
@@ -10772,7 +10764,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>320</v>
@@ -10845,7 +10837,7 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10891,7 +10883,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>328</v>
@@ -10926,7 +10918,7 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X74" t="s" s="2">
         <v>331</v>
@@ -10956,13 +10948,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10993,10 +10985,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -11071,13 +11063,13 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11111,7 +11103,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -11123,7 +11115,7 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>246</v>
@@ -11186,7 +11178,7 @@
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -11219,7 +11211,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11238,16 +11230,16 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11309,7 +11301,7 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11349,13 +11341,13 @@
         <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>255</v>
@@ -11364,10 +11356,10 @@
         <v>256</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11428,13 +11420,13 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -11462,7 +11454,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11474,7 +11466,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>343</v>
@@ -11541,13 +11533,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11581,7 +11573,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11593,7 +11585,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>351</v>
@@ -11628,7 +11620,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>354</v>
@@ -11658,13 +11650,13 @@
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11745,7 +11737,7 @@
         <v>78</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X81" t="s" s="2">
         <v>222</v>
@@ -11781,7 +11773,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11817,7 +11809,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11893,7 +11885,7 @@
         <v>230</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11902,7 +11894,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>239</v>
@@ -11936,7 +11928,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11948,7 +11940,7 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>246</v>
@@ -12011,7 +12003,7 @@
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
@@ -12044,7 +12036,7 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12063,16 +12055,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12134,7 +12126,7 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
@@ -12174,13 +12166,13 @@
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>255</v>
@@ -12189,10 +12181,10 @@
         <v>256</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -12253,13 +12245,13 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
@@ -12284,10 +12276,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -12332,7 +12324,7 @@
         <v>78</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>261</v>
@@ -12362,13 +12354,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>263</v>
@@ -12405,7 +12397,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12487,7 +12479,7 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12518,19 +12510,19 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>280</v>
@@ -12600,13 +12592,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>285</v>
@@ -12640,7 +12632,7 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
@@ -12652,7 +12644,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>291</v>
@@ -12717,13 +12709,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12757,11 +12749,11 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12769,7 +12761,7 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>297</v>
@@ -12834,13 +12826,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12871,19 +12863,19 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>303</v>
@@ -12950,16 +12942,16 @@
         <v>302</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12993,7 +12985,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
@@ -13068,13 +13060,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>314</v>
@@ -13120,7 +13112,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>320</v>
@@ -13193,7 +13185,7 @@
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13239,7 +13231,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>328</v>
@@ -13274,7 +13266,7 @@
         <v>78</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X94" t="s" s="2">
         <v>331</v>
@@ -13304,13 +13296,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13419,13 +13411,13 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13459,7 +13451,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -13471,7 +13463,7 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>246</v>
@@ -13534,7 +13526,7 @@
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
@@ -13567,7 +13559,7 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13586,16 +13578,16 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13657,7 +13649,7 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13697,13 +13689,13 @@
         <v>78</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>255</v>
@@ -13712,10 +13704,10 @@
         <v>256</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>78</v>
@@ -13776,13 +13768,13 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
@@ -13810,7 +13802,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13822,7 +13814,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>343</v>
@@ -13889,13 +13881,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13929,7 +13921,7 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>78</v>
@@ -13941,7 +13933,7 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>351</v>
@@ -13976,7 +13968,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>354</v>
@@ -14006,13 +13998,13 @@
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -14049,7 +14041,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14093,7 +14085,7 @@
         <v>78</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X101" t="s" s="2">
         <v>222</v>
@@ -14129,7 +14121,7 @@
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14160,13 +14152,13 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14239,16 +14231,16 @@
         <v>370</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14282,7 +14274,7 @@
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>78</v>
@@ -14294,7 +14286,7 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>246</v>
@@ -14357,7 +14349,7 @@
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
@@ -14390,7 +14382,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14409,16 +14401,16 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14480,7 +14472,7 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14520,13 +14512,13 @@
         <v>78</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>255</v>
@@ -14535,10 +14527,10 @@
         <v>256</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>78</v>
@@ -14599,13 +14591,13 @@
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>78</v>
@@ -14633,7 +14625,7 @@
         <v>79</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>78</v>
@@ -14645,7 +14637,7 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>382</v>
@@ -14710,13 +14702,13 @@
         <v>79</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14747,19 +14739,19 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>280</v>
@@ -14824,16 +14816,16 @@
         <v>387</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14879,7 +14871,7 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>394</v>
@@ -14914,7 +14906,7 @@
         <v>78</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>397</v>
@@ -14950,7 +14942,7 @@
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>78</v>
@@ -15052,7 +15044,7 @@
         <v>78</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE109" t="s" s="2">
         <v>401</v>
@@ -15079,7 +15071,7 @@
         <v>409</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>410</v>
@@ -15101,7 +15093,7 @@
         <v>79</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>78</v>
@@ -15113,7 +15105,7 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>246</v>
@@ -15176,7 +15168,7 @@
         <v>79</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
@@ -15209,7 +15201,7 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15228,16 +15220,16 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15299,7 +15291,7 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15339,13 +15331,13 @@
         <v>78</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>255</v>
@@ -15354,10 +15346,10 @@
         <v>256</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>78</v>
@@ -15418,13 +15410,13 @@
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>78</v>
@@ -15452,16 +15444,16 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>416</v>
@@ -15527,13 +15519,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15545,7 +15537,7 @@
         <v>419</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>78</v>
@@ -15567,7 +15559,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15579,7 +15571,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>422</v>
@@ -15616,7 +15608,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>426</v>
@@ -15646,13 +15638,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15664,7 +15656,7 @@
         <v>429</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>430</v>
@@ -15686,7 +15678,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15698,7 +15690,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>433</v>
@@ -15733,7 +15725,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>436</v>
@@ -15763,13 +15755,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15803,7 +15795,7 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>78</v>
@@ -15815,7 +15807,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>443</v>
@@ -15852,7 +15844,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>444</v>
@@ -15882,13 +15874,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15934,7 +15926,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>452</v>
@@ -15971,7 +15963,7 @@
         <v>78</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X117" t="s" s="2">
         <v>456</v>
@@ -16007,7 +15999,7 @@
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -16041,19 +16033,19 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>461</v>
@@ -16120,13 +16112,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16160,7 +16152,7 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>78</v>
@@ -16172,7 +16164,7 @@
         <v>78</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>470</v>
@@ -16237,13 +16229,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16277,16 +16269,16 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I120" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>475</v>
@@ -16356,13 +16348,13 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16479,7 +16471,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16513,7 +16505,7 @@
         <v>79</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>78</v>
@@ -16525,7 +16517,7 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>246</v>
@@ -16588,7 +16580,7 @@
         <v>79</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>78</v>
@@ -16621,7 +16613,7 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16640,16 +16632,16 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16711,7 +16703,7 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16751,13 +16743,13 @@
         <v>78</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>255</v>
@@ -16766,10 +16758,10 @@
         <v>256</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>78</v>
@@ -16830,13 +16822,13 @@
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>78</v>
@@ -16861,10 +16853,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16876,7 +16868,7 @@
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>492</v>
@@ -16936,16 +16928,16 @@
         <v>491</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16976,10 +16968,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17055,16 +17047,16 @@
         <v>495</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>78</v>
@@ -17100,7 +17092,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17197,7 +17189,7 @@
         <v>409</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>410</v>
@@ -17219,7 +17211,7 @@
         <v>79</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>78</v>
@@ -17231,7 +17223,7 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>246</v>
@@ -17294,7 +17286,7 @@
         <v>79</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
@@ -17327,7 +17319,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17346,16 +17338,16 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K129" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17417,7 +17409,7 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17457,13 +17449,13 @@
         <v>78</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>255</v>
@@ -17472,10 +17464,10 @@
         <v>256</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>78</v>
@@ -17536,13 +17528,13 @@
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>78</v>
@@ -17570,16 +17562,16 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I131" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>416</v>
@@ -17645,13 +17637,13 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17663,7 +17655,7 @@
         <v>419</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17685,7 +17677,7 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>78</v>
@@ -17697,7 +17689,7 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>246</v>
@@ -17760,7 +17752,7 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
@@ -17793,7 +17785,7 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17812,16 +17804,16 @@
         <v>78</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17868,7 +17860,7 @@
         <v>78</v>
       </c>
       <c r="AD133" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE133" t="s" s="2">
         <v>252</v>
@@ -17883,7 +17875,7 @@
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
@@ -17917,19 +17909,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>509</v>
@@ -17994,19 +17986,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>513</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -18034,19 +18026,19 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J135" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>515</v>
@@ -18081,7 +18073,7 @@
         <v>78</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X135" t="s" s="2">
         <v>518</v>
@@ -18111,19 +18103,19 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>78</v>
@@ -18151,16 +18143,16 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I136" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>522</v>
@@ -18228,13 +18220,13 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -18268,7 +18260,7 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>78</v>
@@ -18280,7 +18272,7 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>246</v>
@@ -18343,7 +18335,7 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
@@ -18376,7 +18368,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18395,16 +18387,16 @@
         <v>78</v>
       </c>
       <c r="J138" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K138" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -18451,7 +18443,7 @@
         <v>78</v>
       </c>
       <c r="AD138" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE138" t="s" s="2">
         <v>252</v>
@@ -18466,7 +18458,7 @@
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18500,19 +18492,19 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I139" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>531</v>
@@ -18549,7 +18541,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>535</v>
@@ -18579,13 +18571,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18619,16 +18611,16 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>218</v>
@@ -18668,7 +18660,7 @@
         <v>78</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>544</v>
@@ -18698,13 +18690,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18738,19 +18730,19 @@
         <v>79</v>
       </c>
       <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>548</v>
@@ -18817,13 +18809,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18854,22 +18846,22 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F142" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>556</v>
@@ -18934,13 +18926,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18974,19 +18966,19 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J143" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>563</v>
@@ -19049,13 +19041,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19089,16 +19081,16 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J144" t="s" s="2">
         <v>568</v>
@@ -19166,13 +19158,13 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -19206,19 +19198,19 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I145" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J145" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>575</v>
@@ -19283,19 +19275,19 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>78</v>
@@ -19320,10 +19312,10 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19335,7 +19327,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>422</v>
@@ -19372,7 +19364,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>426</v>
@@ -19402,13 +19394,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19420,7 +19412,7 @@
         <v>429</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>430</v>
@@ -19442,7 +19434,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19454,7 +19446,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>433</v>
@@ -19489,7 +19481,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>436</v>
@@ -19519,13 +19511,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19559,7 +19551,7 @@
         <v>79</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>78</v>
@@ -19571,7 +19563,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>443</v>
@@ -19608,7 +19600,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>444</v>
@@ -19638,13 +19630,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19690,7 +19682,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>452</v>
@@ -19727,7 +19719,7 @@
         <v>78</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>456</v>
@@ -19763,7 +19755,7 @@
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19797,19 +19789,19 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I150" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>461</v>
@@ -19876,13 +19868,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19916,7 +19908,7 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>78</v>
@@ -19928,7 +19920,7 @@
         <v>78</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>470</v>
@@ -19993,13 +19985,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20033,16 +20025,16 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I152" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>475</v>
@@ -20112,13 +20104,13 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20235,7 +20227,7 @@
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20269,7 +20261,7 @@
         <v>79</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>78</v>
@@ -20281,7 +20273,7 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>246</v>
@@ -20344,7 +20336,7 @@
         <v>79</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>78</v>
@@ -20377,7 +20369,7 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20396,16 +20388,16 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K155" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L155" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
@@ -20467,7 +20459,7 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20507,13 +20499,13 @@
         <v>78</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>255</v>
@@ -20522,10 +20514,10 @@
         <v>256</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>78</v>
@@ -20586,13 +20578,13 @@
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>78</v>
@@ -20617,10 +20609,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20632,7 +20624,7 @@
         <v>78</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>492</v>
@@ -20692,16 +20684,16 @@
         <v>491</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20732,10 +20724,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20811,16 +20803,16 @@
         <v>495</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>78</v>
@@ -20853,10 +20845,10 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20953,7 +20945,7 @@
         <v>409</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>410</v>
@@ -20975,7 +20967,7 @@
         <v>79</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>78</v>
@@ -20987,7 +20979,7 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>246</v>
@@ -21050,7 +21042,7 @@
         <v>79</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>78</v>
@@ -21083,7 +21075,7 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21102,16 +21094,16 @@
         <v>78</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L161" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -21173,7 +21165,7 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -21213,13 +21205,13 @@
         <v>78</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>255</v>
@@ -21228,10 +21220,10 @@
         <v>256</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>78</v>
@@ -21292,13 +21284,13 @@
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>78</v>
@@ -21335,7 +21327,7 @@
         <v>78</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J163" t="s" s="2">
         <v>416</v>
@@ -21401,13 +21393,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21419,7 +21411,7 @@
         <v>419</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>78</v>
@@ -21438,10 +21430,10 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21453,7 +21445,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>422</v>
@@ -21490,7 +21482,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>426</v>
@@ -21520,13 +21512,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21538,7 +21530,7 @@
         <v>429</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>430</v>
@@ -21560,7 +21552,7 @@
         <v>79</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21572,7 +21564,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>433</v>
@@ -21607,7 +21599,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>436</v>
@@ -21637,13 +21629,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21689,7 +21681,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>443</v>
@@ -21726,7 +21718,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>444</v>
@@ -21756,13 +21748,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21808,7 +21800,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>583</v>
@@ -21845,7 +21837,7 @@
         <v>78</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X167" t="s" s="2">
         <v>456</v>
@@ -21881,7 +21873,7 @@
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21915,19 +21907,19 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I168" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>461</v>
@@ -21994,13 +21986,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -22034,7 +22026,7 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>78</v>
@@ -22046,7 +22038,7 @@
         <v>78</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K169" t="s" s="2">
         <v>470</v>
@@ -22111,13 +22103,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22148,19 +22140,19 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I170" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>475</v>
@@ -22230,13 +22222,13 @@
         <v>79</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22353,7 +22345,7 @@
         <v>78</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22387,7 +22379,7 @@
         <v>79</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>78</v>
@@ -22399,7 +22391,7 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>246</v>
@@ -22462,7 +22454,7 @@
         <v>79</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>78</v>
@@ -22495,7 +22487,7 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22514,16 +22506,16 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
@@ -22585,7 +22577,7 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
@@ -22625,13 +22617,13 @@
         <v>78</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>255</v>
@@ -22640,10 +22632,10 @@
         <v>256</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>78</v>
@@ -22704,13 +22696,13 @@
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>78</v>
@@ -22735,10 +22727,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22750,7 +22742,7 @@
         <v>78</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>492</v>
@@ -22810,16 +22802,16 @@
         <v>491</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
@@ -22850,10 +22842,10 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22929,16 +22921,16 @@
         <v>495</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>78</v>
@@ -22971,10 +22963,10 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>78</v>
@@ -23071,7 +23063,7 @@
         <v>409</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>410</v>
@@ -23093,7 +23085,7 @@
         <v>79</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>78</v>
@@ -23105,7 +23097,7 @@
         <v>78</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>246</v>
@@ -23168,7 +23160,7 @@
         <v>79</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>78</v>
@@ -23201,7 +23193,7 @@
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23220,16 +23212,16 @@
         <v>78</v>
       </c>
       <c r="J179" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K179" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K179" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L179" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
@@ -23291,7 +23283,7 @@
         <v>78</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>78</v>
@@ -23331,13 +23323,13 @@
         <v>78</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K180" t="s" s="2">
         <v>255</v>
@@ -23346,10 +23338,10 @@
         <v>256</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>78</v>
@@ -23410,13 +23402,13 @@
         <v>78</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>78</v>
@@ -23441,19 +23433,19 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F181" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I181" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F181" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J181" t="s" s="2">
         <v>585</v>
@@ -23519,13 +23511,13 @@
         <v>79</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>78</v>
@@ -23537,7 +23529,7 @@
         <v>419</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>78</v>
@@ -23556,10 +23548,10 @@
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>78</v>
@@ -23571,7 +23563,7 @@
         <v>78</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>422</v>
@@ -23608,7 +23600,7 @@
         <v>78</v>
       </c>
       <c r="W182" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X182" t="s" s="2">
         <v>426</v>
@@ -23638,13 +23630,13 @@
         <v>79</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>78</v>
@@ -23656,7 +23648,7 @@
         <v>429</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>430</v>
@@ -23678,7 +23670,7 @@
         <v>79</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>78</v>
@@ -23690,7 +23682,7 @@
         <v>78</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>433</v>
@@ -23725,7 +23717,7 @@
         <v>78</v>
       </c>
       <c r="W183" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X183" t="s" s="2">
         <v>436</v>
@@ -23755,13 +23747,13 @@
         <v>79</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>78</v>
@@ -23795,7 +23787,7 @@
         <v>79</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>78</v>
@@ -23807,7 +23799,7 @@
         <v>78</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K184" t="s" s="2">
         <v>443</v>
@@ -23844,7 +23836,7 @@
         <v>78</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X184" t="s" s="2">
         <v>444</v>
@@ -23874,13 +23866,13 @@
         <v>79</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>78</v>
@@ -23926,7 +23918,7 @@
         <v>78</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>452</v>
@@ -23963,7 +23955,7 @@
         <v>78</v>
       </c>
       <c r="W185" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X185" t="s" s="2">
         <v>456</v>
@@ -23999,7 +23991,7 @@
         <v>78</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>78</v>
@@ -24033,19 +24025,19 @@
         <v>79</v>
       </c>
       <c r="F186" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I186" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J186" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K186" t="s" s="2">
         <v>461</v>
@@ -24112,13 +24104,13 @@
         <v>79</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>78</v>
@@ -24152,7 +24144,7 @@
         <v>79</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>78</v>
@@ -24164,7 +24156,7 @@
         <v>78</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K187" t="s" s="2">
         <v>470</v>
@@ -24229,13 +24221,13 @@
         <v>79</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>78</v>
@@ -24269,16 +24261,16 @@
         <v>79</v>
       </c>
       <c r="F188" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I188" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J188" t="s" s="2">
         <v>475</v>
@@ -24348,13 +24340,13 @@
         <v>79</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>78</v>
@@ -24471,7 +24463,7 @@
         <v>78</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>78</v>
@@ -24505,7 +24497,7 @@
         <v>79</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>78</v>
@@ -24517,7 +24509,7 @@
         <v>78</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K190" t="s" s="2">
         <v>246</v>
@@ -24580,7 +24572,7 @@
         <v>79</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>78</v>
@@ -24613,7 +24605,7 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24632,16 +24624,16 @@
         <v>78</v>
       </c>
       <c r="J191" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K191" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L191" t="s" s="2">
         <v>251</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
@@ -24703,7 +24695,7 @@
         <v>78</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>78</v>
@@ -24743,13 +24735,13 @@
         <v>78</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>255</v>
@@ -24758,10 +24750,10 @@
         <v>256</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>78</v>
@@ -24822,13 +24814,13 @@
         <v>78</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>78</v>
@@ -24853,10 +24845,10 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>78</v>
@@ -24868,7 +24860,7 @@
         <v>78</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>492</v>
@@ -24928,16 +24920,16 @@
         <v>491</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>78</v>
@@ -24968,10 +24960,10 @@
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>78</v>
@@ -25047,16 +25039,16 @@
         <v>495</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>78</v>
